--- a/biology/Histoire de la zoologie et de la botanique/Georg_Semper/Georg_Semper.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_Semper/Georg_Semper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Semper est un entomologiste prussien, né le 3 août 1837 à Altona, où il est mort le 21 février 1909.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses collections de lépidoptères des Philippines sont conservées au Muséum Senckenberg de Francfort-sur-le-Main, celles d’Australie et d’Inde au Musée zoologique de Dresde et celles d’Europe dans diverses institutions européennes dont l’université de Hambourg. Avec ses demi-frères naturalistes, Karl Gottfried Semper (1832-1893) et  Otto Semper (de) (1830-1907), il travaille pour le compte du muséum Godeffroy.
 </t>
